--- a/Group Project/trip_hh_cbsa_list.xlsx
+++ b/Group Project/trip_hh_cbsa_list.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofnelincoln-my.sharepoint.com/personal/jhawkins17_unl_edu/Documents/Documents/Courses/CIVE461/F22/Assignments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhawkins17\OneDrive-UNL\Documents\Courses\CIVE461\F23\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{EC12BD78-D2B3-487F-92BD-B3BD35F83684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08AD6958-B5BA-476C-A818-42AEADC1F95B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F76E4F-9792-408D-BD13-F5337E1E165C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trip_hh_cbsa_list" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">trip_hh_cbsa_list!$A$1:$B$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">trip_hh_cbsa_list!$A$1:$D$151</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="160">
   <si>
     <t>XXXXX</t>
   </si>
@@ -497,6 +497,12 @@
   </si>
   <si>
     <t>Insufficient data</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -639,7 +645,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,6 +837,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -992,11 +1004,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1355,18 +1369,18 @@
   <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>152</v>
       </c>
@@ -1380,21 +1394,21 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>40900</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>73633</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>31080</v>
       </c>
@@ -1408,7 +1422,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>33340</v>
       </c>
@@ -1422,7 +1436,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>41740</v>
       </c>
@@ -1436,7 +1450,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>12060</v>
       </c>
@@ -1450,2056 +1464,2052 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>41860</v>
       </c>
       <c r="B7" s="1">
-        <v>45439</v>
-      </c>
-      <c r="C7" s="1" t="e">
-        <v>#N/A</v>
+        <v>44445</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41860</v>
+        <v>31540</v>
       </c>
       <c r="B8" s="1">
-        <v>44445</v>
+        <v>28074</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>31540</v>
+        <v>19780</v>
       </c>
       <c r="B9" s="1">
-        <v>28074</v>
+        <v>25643</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>19780</v>
+        <v>41940</v>
       </c>
       <c r="B10" s="1">
-        <v>25643</v>
+        <v>20681</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41940</v>
+        <v>46140</v>
       </c>
       <c r="B11" s="1">
-        <v>20681</v>
+        <v>19300</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>46140</v>
+        <v>40140</v>
       </c>
       <c r="B12" s="1">
-        <v>19300</v>
+        <v>18710</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>40140</v>
+        <v>42200</v>
       </c>
       <c r="B13" s="1">
-        <v>18710</v>
+        <v>18027</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>42200</v>
+        <v>17020</v>
       </c>
       <c r="B14" s="1">
-        <v>18027</v>
+        <v>16554</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>17020</v>
+        <v>42020</v>
       </c>
       <c r="B15" s="1">
-        <v>16554</v>
+        <v>15321</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>42020</v>
+        <v>39820</v>
       </c>
       <c r="B16" s="1">
-        <v>15321</v>
+        <v>14886</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>39820</v>
+        <v>12260</v>
       </c>
       <c r="B17" s="1">
-        <v>14886</v>
+        <v>14823</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>12260</v>
+        <v>42340</v>
       </c>
       <c r="B18" s="1">
-        <v>14823</v>
+        <v>14069</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>42340</v>
+        <v>41500</v>
       </c>
       <c r="B19" s="1">
-        <v>14069</v>
+        <v>12977</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41500</v>
+        <v>38060</v>
       </c>
       <c r="B20" s="1">
-        <v>12977</v>
+        <v>12134</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>38060</v>
+        <v>42100</v>
       </c>
       <c r="B21" s="1">
         <v>12134</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>42100</v>
+        <v>24580</v>
       </c>
       <c r="B22" s="1">
-        <v>12134</v>
+        <v>12105</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>24580</v>
+        <v>21700</v>
       </c>
       <c r="B23" s="1">
-        <v>12105</v>
+        <v>12101</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>21700</v>
+        <v>23420</v>
       </c>
       <c r="B24" s="1">
-        <v>12101</v>
+        <v>11915</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23420</v>
+        <v>11540</v>
       </c>
       <c r="B25" s="1">
-        <v>11915</v>
+        <v>9669</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>11540</v>
+        <v>44700</v>
       </c>
       <c r="B26" s="1">
-        <v>9669</v>
+        <v>9322</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44700</v>
+        <v>12540</v>
       </c>
       <c r="B27" s="1">
-        <v>9322</v>
+        <v>9156</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>12540</v>
+        <v>17980</v>
       </c>
       <c r="B28" s="1">
-        <v>9156</v>
+        <v>8767</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>17980</v>
+        <v>12020</v>
       </c>
       <c r="B29" s="1">
-        <v>8767</v>
+        <v>8692</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>12020</v>
+        <v>33700</v>
       </c>
       <c r="B30" s="1">
-        <v>8692</v>
+        <v>7785</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>33700</v>
+        <v>36780</v>
       </c>
       <c r="B31" s="1">
-        <v>7785</v>
+        <v>7227</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>36780</v>
+        <v>23580</v>
       </c>
       <c r="B32" s="1">
-        <v>7227</v>
+        <v>7045</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>23580</v>
+        <v>46020</v>
       </c>
       <c r="B33" s="1">
-        <v>7045</v>
+        <v>6874</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>46020</v>
+        <v>39140</v>
       </c>
       <c r="B34" s="1">
-        <v>6874</v>
+        <v>6495</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>39140</v>
+        <v>31420</v>
       </c>
       <c r="B35" s="1">
-        <v>6495</v>
+        <v>6467</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>31420</v>
+        <v>37100</v>
       </c>
       <c r="B36" s="1">
-        <v>6467</v>
+        <v>6106</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>37100</v>
+        <v>20740</v>
       </c>
       <c r="B37" s="1">
-        <v>6106</v>
+        <v>6043</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>20740</v>
+        <v>29420</v>
       </c>
       <c r="B38" s="1">
-        <v>6043</v>
+        <v>5993</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>29420</v>
+        <v>27500</v>
       </c>
       <c r="B39" s="1">
-        <v>5993</v>
+        <v>5764</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>27500</v>
+        <v>48140</v>
       </c>
       <c r="B40" s="1">
-        <v>5764</v>
+        <v>5706</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>48140</v>
+        <v>47580</v>
       </c>
       <c r="B41" s="1">
-        <v>5706</v>
+        <v>5589</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>47580</v>
+        <v>39540</v>
       </c>
       <c r="B42" s="1">
-        <v>5589</v>
+        <v>5514</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="D42" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>39540</v>
+        <v>46380</v>
       </c>
       <c r="B43" s="1">
-        <v>5514</v>
+        <v>5444</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>46380</v>
+        <v>16980</v>
       </c>
       <c r="B44" s="1">
-        <v>5444</v>
+        <v>4839</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>16980</v>
+        <v>42220</v>
       </c>
       <c r="B45" s="1">
-        <v>4839</v>
+        <v>4786</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>42220</v>
+        <v>49740</v>
       </c>
       <c r="B46" s="1">
-        <v>4786</v>
+        <v>4751</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>49740</v>
+        <v>47300</v>
       </c>
       <c r="B47" s="1">
-        <v>4751</v>
+        <v>4747</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>47300</v>
+        <v>22540</v>
       </c>
       <c r="B48" s="1">
-        <v>4747</v>
+        <v>4729</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>22540</v>
+        <v>29100</v>
       </c>
       <c r="B49" s="1">
-        <v>4729</v>
+        <v>4402</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D49" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>29100</v>
+        <v>15260</v>
       </c>
       <c r="B50" s="1">
-        <v>4402</v>
+        <v>4306</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>15260</v>
+        <v>49700</v>
       </c>
       <c r="B51" s="1">
-        <v>4306</v>
+        <v>4196</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>49700</v>
+        <v>39780</v>
       </c>
       <c r="B52" s="1">
-        <v>4196</v>
+        <v>4157</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D52" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>39780</v>
+        <v>43100</v>
       </c>
       <c r="B53" s="1">
-        <v>4157</v>
+        <v>4122</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="D53" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>43100</v>
+        <v>33460</v>
       </c>
       <c r="B54" s="1">
-        <v>4122</v>
+        <v>4113</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>33460</v>
-      </c>
-      <c r="B55" s="1">
-        <v>4113</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>107</v>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>46060</v>
+      </c>
+      <c r="B55" s="3">
+        <v>3986</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>46060</v>
+        <v>22380</v>
       </c>
       <c r="B56" s="3">
-        <v>3986</v>
+        <v>3928</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>22380</v>
+        <v>46660</v>
       </c>
       <c r="B57" s="3">
-        <v>3928</v>
+        <v>3912</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>46660</v>
+        <v>48020</v>
       </c>
       <c r="B58" s="3">
-        <v>3912</v>
+        <v>3883</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="D58" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>48020</v>
+        <v>43420</v>
       </c>
       <c r="B59" s="3">
-        <v>3883</v>
+        <v>3798</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>43420</v>
+        <v>31820</v>
       </c>
       <c r="B60" s="3">
-        <v>3798</v>
+        <v>3646</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="D60" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>31820</v>
+        <v>43760</v>
       </c>
       <c r="B61" s="3">
-        <v>3646</v>
+        <v>3602</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="D61" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>43760</v>
+        <v>19140</v>
       </c>
       <c r="B62" s="3">
-        <v>3602</v>
+        <v>3502</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D62" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>19140</v>
+        <v>46700</v>
       </c>
       <c r="B63" s="3">
-        <v>3502</v>
+        <v>3272</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>46700</v>
+        <v>10500</v>
       </c>
       <c r="B64" s="3">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D64" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>10500</v>
+        <v>40660</v>
       </c>
       <c r="B65" s="3">
-        <v>3269</v>
+        <v>3172</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D65" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>40660</v>
+        <v>49220</v>
       </c>
       <c r="B66" s="3">
-        <v>3172</v>
+        <v>3148</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>49220</v>
+        <v>17340</v>
       </c>
       <c r="B67" s="3">
-        <v>3148</v>
+        <v>3010</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>17340</v>
+        <v>44620</v>
       </c>
       <c r="B68" s="3">
-        <v>3010</v>
+        <v>2929</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="D68" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44620</v>
+        <v>27600</v>
       </c>
       <c r="B69" s="3">
-        <v>2929</v>
+        <v>2853</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>27600</v>
+        <v>48580</v>
       </c>
       <c r="B70" s="3">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>48580</v>
+        <v>13180</v>
       </c>
       <c r="B71" s="3">
-        <v>2851</v>
+        <v>2568</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D71" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>13180</v>
+        <v>32900</v>
       </c>
       <c r="B72" s="3">
-        <v>2568</v>
+        <v>2418</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="D72" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>32900</v>
+        <v>25980</v>
       </c>
       <c r="B73" s="3">
-        <v>2418</v>
+        <v>2174</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D73" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>25980</v>
+        <v>43320</v>
       </c>
       <c r="B74" s="3">
-        <v>2174</v>
+        <v>2168</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>43320</v>
+        <v>18860</v>
       </c>
       <c r="B75" s="3">
-        <v>2168</v>
+        <v>2069</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>18860</v>
+        <v>12660</v>
       </c>
       <c r="B76" s="3">
-        <v>2069</v>
+        <v>2033</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="D76" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>12660</v>
+        <v>20260</v>
       </c>
       <c r="B77" s="3">
-        <v>2033</v>
+        <v>1681</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="D77" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>20260</v>
+        <v>38420</v>
       </c>
       <c r="B78" s="3">
-        <v>1681</v>
+        <v>1628</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D78" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>38420</v>
+        <v>25260</v>
       </c>
       <c r="B79" s="3">
-        <v>1628</v>
+        <v>1536</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>25260</v>
+        <v>31460</v>
       </c>
       <c r="B80" s="3">
-        <v>1536</v>
+        <v>1300</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D80" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>31460</v>
+        <v>37740</v>
       </c>
       <c r="B81" s="3">
-        <v>1300</v>
+        <v>1163</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>37740</v>
+        <v>32860</v>
       </c>
       <c r="B82" s="3">
-        <v>1163</v>
+        <v>1148</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="D82" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>32860</v>
+        <v>45000</v>
       </c>
       <c r="B83" s="3">
-        <v>1148</v>
+        <v>1107</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="D83" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>45000</v>
+        <v>32980</v>
       </c>
       <c r="B84" s="3">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="D84" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>32980</v>
+        <v>43020</v>
       </c>
       <c r="B85" s="3">
-        <v>1094</v>
+        <v>1078</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D85" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>43020</v>
+        <v>34900</v>
       </c>
       <c r="B86" s="3">
-        <v>1078</v>
+        <v>1033</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="D86" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>34900</v>
+        <v>16860</v>
       </c>
       <c r="B87" s="3">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D87" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
-        <v>16860</v>
-      </c>
-      <c r="B88" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>67</v>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>31940</v>
+      </c>
+      <c r="B88">
+        <v>914</v>
+      </c>
+      <c r="C88" t="s">
+        <v>106</v>
       </c>
       <c r="D88" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>31940</v>
+        <v>35700</v>
       </c>
       <c r="B89">
-        <v>914</v>
+        <v>825</v>
       </c>
       <c r="C89" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>35700</v>
+        <v>40940</v>
       </c>
       <c r="B90">
-        <v>825</v>
+        <v>789</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D90" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>40940</v>
+        <v>20940</v>
       </c>
       <c r="B91">
-        <v>789</v>
+        <v>609</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D91" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>20940</v>
+        <v>45620</v>
       </c>
       <c r="B92">
-        <v>609</v>
+        <v>535</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D92" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>45620</v>
+        <v>44340</v>
       </c>
       <c r="B93">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="C93" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D93" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>44340</v>
+        <v>41220</v>
       </c>
       <c r="B94">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="C94" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D94" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>41220</v>
+        <v>48180</v>
       </c>
       <c r="B95">
-        <v>487</v>
+        <v>454</v>
       </c>
       <c r="C95" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D95" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>48180</v>
+        <v>47080</v>
       </c>
       <c r="B96">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C96" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D96" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>47080</v>
+        <v>20140</v>
       </c>
       <c r="B97">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C97" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D97" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>20140</v>
+        <v>45580</v>
       </c>
       <c r="B98">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C98" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D98" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>45580</v>
+        <v>18460</v>
       </c>
       <c r="B99">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="C99" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D99" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>18460</v>
+        <v>45740</v>
       </c>
       <c r="B100">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C100" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D100" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>45740</v>
+        <v>29300</v>
       </c>
       <c r="B101">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C101" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D101" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>29300</v>
+        <v>15660</v>
       </c>
       <c r="B102">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C102" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D102" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>15660</v>
+        <v>45700</v>
       </c>
       <c r="B103">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="C103" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D103" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>45700</v>
+        <v>34220</v>
       </c>
       <c r="B104">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="C104" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D104" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>34220</v>
+        <v>44900</v>
       </c>
       <c r="B105">
         <v>247</v>
       </c>
       <c r="C105" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D105" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>44900</v>
+        <v>11140</v>
       </c>
       <c r="B106">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C106" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D106" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>11140</v>
+        <v>20060</v>
       </c>
       <c r="B107">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C107" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D107" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>20060</v>
+        <v>36540</v>
       </c>
       <c r="B108">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C108" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D108" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>36540</v>
+        <v>33300</v>
       </c>
       <c r="B109">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="C109" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="D109" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>33300</v>
+        <v>18380</v>
       </c>
       <c r="B110">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="C110" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D110" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>18380</v>
+        <v>27020</v>
       </c>
       <c r="B111">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C111" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D111" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>27020</v>
+        <v>27700</v>
       </c>
       <c r="B112">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D112" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>27700</v>
+        <v>22340</v>
       </c>
       <c r="B113">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D113" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>22340</v>
+        <v>16340</v>
       </c>
       <c r="B114">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C114" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D114" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>16340</v>
+        <v>45300</v>
       </c>
       <c r="B115">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C115" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="D115" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>45300</v>
+        <v>17820</v>
       </c>
       <c r="B116">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C116" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D116" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>17820</v>
+        <v>38940</v>
       </c>
       <c r="B117">
         <v>56</v>
       </c>
       <c r="C117" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D117" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>38940</v>
+        <v>42660</v>
       </c>
       <c r="B118">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C118" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="D118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>42660</v>
+        <v>12460</v>
       </c>
       <c r="B119">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C119" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D119" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>12460</v>
+        <v>39460</v>
       </c>
       <c r="B120">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C120" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D120" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>39460</v>
+        <v>24860</v>
       </c>
       <c r="B121">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C121" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="D121" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>24860</v>
+        <v>28060</v>
       </c>
       <c r="B122">
         <v>36</v>
       </c>
       <c r="C122" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D122" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>28060</v>
+        <v>40300</v>
       </c>
       <c r="B123">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C123" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>40300</v>
+        <v>10980</v>
       </c>
       <c r="B124">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C124" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D124" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>10980</v>
+        <v>19740</v>
       </c>
       <c r="B125">
         <v>30</v>
       </c>
       <c r="C125" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="D125" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>19740</v>
+        <v>16740</v>
       </c>
       <c r="B126">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C126" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="D126" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>16740</v>
+        <v>37460</v>
       </c>
       <c r="B127">
         <v>28</v>
       </c>
       <c r="C127" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="D127" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>37460</v>
+        <v>12580</v>
       </c>
       <c r="B128">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D128" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>12580</v>
+        <v>26980</v>
       </c>
       <c r="B129">
         <v>24</v>
       </c>
       <c r="C129" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D129" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>26980</v>
+        <v>47380</v>
       </c>
       <c r="B130">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C130" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="D130" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>47380</v>
+        <v>17900</v>
       </c>
       <c r="B131">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D131" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>17900</v>
+        <v>35620</v>
       </c>
       <c r="B132">
         <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D132" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>35620</v>
+        <v>41060</v>
       </c>
       <c r="B133">
         <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D133" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>41060</v>
+        <v>12100</v>
       </c>
       <c r="B134">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D134" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>12100</v>
+        <v>21660</v>
       </c>
       <c r="B135">
         <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D135" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>21660</v>
+        <v>35840</v>
       </c>
       <c r="B136">
         <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="D136" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>35840</v>
+        <v>39580</v>
       </c>
       <c r="B137">
         <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="D137" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>39580</v>
+        <v>13740</v>
       </c>
       <c r="B138">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D138" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>13740</v>
+        <v>15180</v>
       </c>
       <c r="B139">
         <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D139" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>15180</v>
+        <v>18880</v>
       </c>
       <c r="B140">
         <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="D140" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>18880</v>
+        <v>26340</v>
       </c>
       <c r="B141">
         <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="D141" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>26340</v>
+        <v>29820</v>
       </c>
       <c r="B142">
         <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D142" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>29820</v>
+        <v>40700</v>
       </c>
       <c r="B143">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D143" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>40700</v>
+        <v>17140</v>
       </c>
       <c r="B144">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D144" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>17140</v>
+        <v>36020</v>
       </c>
       <c r="B145">
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D145" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>36020</v>
+        <v>48620</v>
       </c>
       <c r="B146">
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="D146" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>48620</v>
+        <v>19100</v>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C147" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D147" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>19100</v>
+        <v>27260</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="D148" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>27260</v>
+        <v>41180</v>
       </c>
       <c r="B149">
         <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="D149" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>41180</v>
+        <v>44100</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D150" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>44100</v>
+        <v>47220</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D151" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>47220</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152" t="s">
-        <v>116</v>
-      </c>
-      <c r="D152" t="s">
-        <v>157</v>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="5">
+        <v>45439</v>
+      </c>
+      <c r="C152" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B152" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B152">
-      <sortCondition descending="1" ref="B1:B152"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D151" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>